--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2447.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2447.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.046740411096399</v>
+        <v>2.011370182037354</v>
       </c>
       <c r="B1">
-        <v>2.223664617027616</v>
+        <v>2.195341825485229</v>
       </c>
       <c r="C1">
-        <v>6.926438460514317</v>
+        <v>2.49753212928772</v>
       </c>
       <c r="D1">
-        <v>2.774574014731207</v>
+        <v>3.804660081863403</v>
       </c>
       <c r="E1">
-        <v>0.979057079377424</v>
+        <v>1.260306239128113</v>
       </c>
     </row>
   </sheetData>
